--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Glg1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Glg1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.79715566666667</v>
+        <v>25.835841</v>
       </c>
       <c r="H2">
-        <v>68.39146700000001</v>
+        <v>77.50752299999999</v>
       </c>
       <c r="I2">
-        <v>0.181315435549823</v>
+        <v>0.2034904599345105</v>
       </c>
       <c r="J2">
-        <v>0.181315435549823</v>
+        <v>0.2034904599345105</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.490547666666667</v>
+        <v>13.49059133333333</v>
       </c>
       <c r="N2">
-        <v>19.471643</v>
+        <v>40.471774</v>
       </c>
       <c r="O2">
-        <v>0.8021666724616637</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="P2">
-        <v>0.8021666724616636</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="Q2">
-        <v>147.9660255189201</v>
+        <v>348.540772683978</v>
       </c>
       <c r="R2">
-        <v>1331.694229670281</v>
+        <v>3136.866954155802</v>
       </c>
       <c r="S2">
-        <v>0.1454451996009388</v>
+        <v>0.18136902064083</v>
       </c>
       <c r="T2">
-        <v>0.1454451996009388</v>
+        <v>0.18136902064083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.79715566666667</v>
+        <v>25.835841</v>
       </c>
       <c r="H3">
-        <v>68.39146700000001</v>
+        <v>77.50752299999999</v>
       </c>
       <c r="I3">
-        <v>0.181315435549823</v>
+        <v>0.2034904599345105</v>
       </c>
       <c r="J3">
-        <v>0.181315435549823</v>
+        <v>0.2034904599345105</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,30 +620,30 @@
         <v>1.600723</v>
       </c>
       <c r="N3">
-        <v>4.802168999999999</v>
+        <v>4.802169</v>
       </c>
       <c r="O3">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="P3">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="Q3">
-        <v>36.49193141021366</v>
+        <v>41.356024913043</v>
       </c>
       <c r="R3">
-        <v>328.427382691923</v>
+        <v>372.204224217387</v>
       </c>
       <c r="S3">
-        <v>0.03587023594888425</v>
+        <v>0.02152029927034466</v>
       </c>
       <c r="T3">
-        <v>0.03587023594888426</v>
+        <v>0.02152029927034466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.67462766666667</v>
+        <v>25.835841</v>
       </c>
       <c r="H4">
-        <v>155.023883</v>
+        <v>77.50752299999999</v>
       </c>
       <c r="I4">
-        <v>0.4109902024293441</v>
+        <v>0.2034904599345105</v>
       </c>
       <c r="J4">
-        <v>0.4109902024293441</v>
+        <v>0.2034904599345105</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.490547666666667</v>
+        <v>0.02804266666666666</v>
       </c>
       <c r="N4">
-        <v>19.471643</v>
+        <v>0.08412799999999999</v>
       </c>
       <c r="O4">
-        <v>0.8021666724616637</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="P4">
-        <v>0.8021666724616636</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="Q4">
-        <v>335.3966340277522</v>
+        <v>0.7245058772159999</v>
       </c>
       <c r="R4">
-        <v>3018.569706249769</v>
+        <v>6.520552894943999</v>
       </c>
       <c r="S4">
-        <v>0.3296826430970926</v>
+        <v>0.0003770087510488605</v>
       </c>
       <c r="T4">
-        <v>0.3296826430970925</v>
+        <v>0.0003770087510488605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.67462766666667</v>
+        <v>25.835841</v>
       </c>
       <c r="H5">
-        <v>155.023883</v>
+        <v>77.50752299999999</v>
       </c>
       <c r="I5">
-        <v>0.4109902024293441</v>
+        <v>0.2034904599345105</v>
       </c>
       <c r="J5">
-        <v>0.4109902024293441</v>
+        <v>0.2034904599345105</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.600723</v>
+        <v>0.01667133333333333</v>
       </c>
       <c r="N5">
-        <v>4.802168999999999</v>
+        <v>0.050014</v>
       </c>
       <c r="O5">
-        <v>0.1978333275383364</v>
+        <v>0.001101433808538722</v>
       </c>
       <c r="P5">
-        <v>0.1978333275383364</v>
+        <v>0.001101433808538722</v>
       </c>
       <c r="Q5">
-        <v>82.71676502246966</v>
+        <v>0.430717917258</v>
       </c>
       <c r="R5">
-        <v>744.4508852022269</v>
+        <v>3.876461255322</v>
       </c>
       <c r="S5">
-        <v>0.08130755933225159</v>
+        <v>0.0002241312722869641</v>
       </c>
       <c r="T5">
-        <v>0.08130755933225159</v>
+        <v>0.0002241312722869641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.49915666666666</v>
+        <v>51.67462766666667</v>
       </c>
       <c r="H6">
-        <v>82.49746999999999</v>
+        <v>155.023883</v>
       </c>
       <c r="I6">
-        <v>0.2187124411998423</v>
+        <v>0.4070041207806854</v>
       </c>
       <c r="J6">
-        <v>0.2187124411998423</v>
+        <v>0.4070041207806854</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.490547666666667</v>
+        <v>13.49059133333333</v>
       </c>
       <c r="N6">
-        <v>19.471643</v>
+        <v>40.471774</v>
       </c>
       <c r="O6">
-        <v>0.8021666724616637</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="P6">
-        <v>0.8021666724616636</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="Q6">
-        <v>178.4845871381344</v>
+        <v>697.1212841531603</v>
       </c>
       <c r="R6">
-        <v>1606.36128424321</v>
+        <v>6274.091557378443</v>
       </c>
       <c r="S6">
-        <v>0.1754438311832448</v>
+        <v>0.3627587200231986</v>
       </c>
       <c r="T6">
-        <v>0.1754438311832448</v>
+        <v>0.3627587200231986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.49915666666666</v>
+        <v>51.67462766666667</v>
       </c>
       <c r="H7">
-        <v>82.49746999999999</v>
+        <v>155.023883</v>
       </c>
       <c r="I7">
-        <v>0.2187124411998423</v>
+        <v>0.4070041207806854</v>
       </c>
       <c r="J7">
-        <v>0.2187124411998423</v>
+        <v>0.4070041207806854</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,30 +868,30 @@
         <v>1.600723</v>
       </c>
       <c r="N7">
-        <v>4.802168999999999</v>
+        <v>4.802169</v>
       </c>
       <c r="O7">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="P7">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="Q7">
-        <v>44.01853255693666</v>
+        <v>82.71676502246969</v>
       </c>
       <c r="R7">
-        <v>396.1667930124299</v>
+        <v>744.450885202227</v>
       </c>
       <c r="S7">
-        <v>0.04326861001659753</v>
+        <v>0.04304305217199235</v>
       </c>
       <c r="T7">
-        <v>0.04326861001659753</v>
+        <v>0.04304305217199235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.76107833333333</v>
+        <v>51.67462766666667</v>
       </c>
       <c r="H8">
-        <v>71.28323499999999</v>
+        <v>155.023883</v>
       </c>
       <c r="I8">
-        <v>0.1889819208209905</v>
+        <v>0.4070041207806854</v>
       </c>
       <c r="J8">
-        <v>0.1889819208209905</v>
+        <v>0.4070041207806854</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.490547666666667</v>
+        <v>0.02804266666666666</v>
       </c>
       <c r="N8">
-        <v>19.471643</v>
+        <v>0.08412799999999999</v>
       </c>
       <c r="O8">
-        <v>0.8021666724616637</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="P8">
-        <v>0.8021666724616636</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="Q8">
-        <v>154.2224115339006</v>
+        <v>1.449094358780445</v>
       </c>
       <c r="R8">
-        <v>1388.001703805105</v>
+        <v>13.041849229024</v>
       </c>
       <c r="S8">
-        <v>0.1515949985803876</v>
+        <v>0.0007540604866520465</v>
       </c>
       <c r="T8">
-        <v>0.1515949985803876</v>
+        <v>0.0007540604866520467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>51.67462766666667</v>
+      </c>
+      <c r="H9">
+        <v>155.023883</v>
+      </c>
+      <c r="I9">
+        <v>0.4070041207806854</v>
+      </c>
+      <c r="J9">
+        <v>0.4070041207806854</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.050014</v>
+      </c>
+      <c r="O9">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P9">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q9">
+        <v>0.861484942706889</v>
+      </c>
+      <c r="R9">
+        <v>7.753364484362001</v>
+      </c>
+      <c r="S9">
+        <v>0.0004482880988424241</v>
+      </c>
+      <c r="T9">
+        <v>0.0004482880988424242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>29.76293933333333</v>
+      </c>
+      <c r="H10">
+        <v>89.28881799999999</v>
+      </c>
+      <c r="I10">
+        <v>0.2344214076074757</v>
+      </c>
+      <c r="J10">
+        <v>0.2344214076074757</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.49059133333333</v>
+      </c>
+      <c r="N10">
+        <v>40.471774</v>
+      </c>
+      <c r="O10">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="P10">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="Q10">
+        <v>401.5196514247925</v>
+      </c>
+      <c r="R10">
+        <v>3613.676862823132</v>
+      </c>
+      <c r="S10">
+        <v>0.2089374663003657</v>
+      </c>
+      <c r="T10">
+        <v>0.2089374663003657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>23.76107833333333</v>
-      </c>
-      <c r="H9">
-        <v>71.28323499999999</v>
-      </c>
-      <c r="I9">
-        <v>0.1889819208209905</v>
-      </c>
-      <c r="J9">
-        <v>0.1889819208209905</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>29.76293933333333</v>
+      </c>
+      <c r="H11">
+        <v>89.28881799999999</v>
+      </c>
+      <c r="I11">
+        <v>0.2344214076074757</v>
+      </c>
+      <c r="J11">
+        <v>0.2344214076074757</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>1.600723</v>
       </c>
-      <c r="N9">
-        <v>4.802168999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.1978333275383364</v>
-      </c>
-      <c r="P9">
-        <v>0.1978333275383364</v>
-      </c>
-      <c r="Q9">
-        <v>38.03490459296832</v>
-      </c>
-      <c r="R9">
-        <v>342.3141413367149</v>
-      </c>
-      <c r="S9">
-        <v>0.03738692224060296</v>
-      </c>
-      <c r="T9">
-        <v>0.03738692224060296</v>
+      <c r="N11">
+        <v>4.802169</v>
+      </c>
+      <c r="O11">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="P11">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="Q11">
+        <v>47.64222153847133</v>
+      </c>
+      <c r="R11">
+        <v>428.779993846242</v>
+      </c>
+      <c r="S11">
+        <v>0.02479142682517847</v>
+      </c>
+      <c r="T11">
+        <v>0.02479142682517847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>29.76293933333333</v>
+      </c>
+      <c r="H12">
+        <v>89.28881799999999</v>
+      </c>
+      <c r="I12">
+        <v>0.2344214076074757</v>
+      </c>
+      <c r="J12">
+        <v>0.2344214076074757</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02804266666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.08412799999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="P12">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="Q12">
+        <v>0.8346321867448887</v>
+      </c>
+      <c r="R12">
+        <v>7.511689680703999</v>
+      </c>
+      <c r="S12">
+        <v>0.0004343148181475109</v>
+      </c>
+      <c r="T12">
+        <v>0.0004343148181475109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>29.76293933333333</v>
+      </c>
+      <c r="H13">
+        <v>89.28881799999999</v>
+      </c>
+      <c r="I13">
+        <v>0.2344214076074757</v>
+      </c>
+      <c r="J13">
+        <v>0.2344214076074757</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.050014</v>
+      </c>
+      <c r="O13">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P13">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q13">
+        <v>0.4961878826057777</v>
+      </c>
+      <c r="R13">
+        <v>4.465690943452</v>
+      </c>
+      <c r="S13">
+        <v>0.0002581996637841101</v>
+      </c>
+      <c r="T13">
+        <v>0.0002581996637841101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>19.68999366666667</v>
+      </c>
+      <c r="H14">
+        <v>59.069981</v>
+      </c>
+      <c r="I14">
+        <v>0.1550840116773284</v>
+      </c>
+      <c r="J14">
+        <v>0.1550840116773284</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.49059133333333</v>
+      </c>
+      <c r="N14">
+        <v>40.471774</v>
+      </c>
+      <c r="O14">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="P14">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="Q14">
+        <v>265.6296579129216</v>
+      </c>
+      <c r="R14">
+        <v>2390.666921216294</v>
+      </c>
+      <c r="S14">
+        <v>0.1382248353265326</v>
+      </c>
+      <c r="T14">
+        <v>0.1382248353265326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>19.68999366666667</v>
+      </c>
+      <c r="H15">
+        <v>59.069981</v>
+      </c>
+      <c r="I15">
+        <v>0.1550840116773284</v>
+      </c>
+      <c r="J15">
+        <v>0.1550840116773284</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.600723</v>
+      </c>
+      <c r="N15">
+        <v>4.802169</v>
+      </c>
+      <c r="O15">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="P15">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="Q15">
+        <v>31.51822573208767</v>
+      </c>
+      <c r="R15">
+        <v>283.664031588789</v>
+      </c>
+      <c r="S15">
+        <v>0.01640103592284291</v>
+      </c>
+      <c r="T15">
+        <v>0.01640103592284291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>19.68999366666667</v>
+      </c>
+      <c r="H16">
+        <v>59.069981</v>
+      </c>
+      <c r="I16">
+        <v>0.1550840116773284</v>
+      </c>
+      <c r="J16">
+        <v>0.1550840116773284</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02804266666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.08412799999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="P16">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="Q16">
+        <v>0.5521599290631111</v>
+      </c>
+      <c r="R16">
+        <v>4.969439361568</v>
+      </c>
+      <c r="S16">
+        <v>0.0002873256543276441</v>
+      </c>
+      <c r="T16">
+        <v>0.0002873256543276441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>19.68999366666667</v>
+      </c>
+      <c r="H17">
+        <v>59.069981</v>
+      </c>
+      <c r="I17">
+        <v>0.1550840116773284</v>
+      </c>
+      <c r="J17">
+        <v>0.1550840116773284</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.050014</v>
+      </c>
+      <c r="O17">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P17">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q17">
+        <v>0.3282584477482222</v>
+      </c>
+      <c r="R17">
+        <v>2.954326029734</v>
+      </c>
+      <c r="S17">
+        <v>0.0001708147736252234</v>
+      </c>
+      <c r="T17">
+        <v>0.0001708147736252234</v>
       </c>
     </row>
   </sheetData>
